--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,27 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLoginLogout" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>UserNAme</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>loginpage</t>
+  </si>
+  <si>
+    <t>actiTIME - Login</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -44,14 +79,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +387,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginLogout" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="VerifyProductVersion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>UserNAme</t>
   </si>
@@ -38,6 +40,48 @@
   </si>
   <si>
     <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>actiTIME 2016.1</t>
   </si>
 </sst>
 </file>
@@ -390,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,4 +475,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>